--- a/Web制作ヒアリングシート.xlsx
+++ b/Web制作ヒアリングシート.xlsx
@@ -8,11 +8,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ヒアリングシート" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="案件サマリー" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="マスターデータ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Web制作ヒアリング" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="案件サマリー" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Web制作サマリー" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="マスターデータ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ヒアリングシート'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Web制作ヒアリング'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -23,7 +26,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY/MM/DD"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,8 +144,26 @@
       <color rgb="00444444"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <i val="1"/>
+      <color rgb="00666666"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <b val="1"/>
+      <color rgb="0000796B"/>
+      <sz val="22"/>
+    </font>
+    <font>
+      <name val="Yu Gothic"/>
+      <b val="1"/>
+      <color rgb="0000796B"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -184,8 +205,33 @@
         <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000796B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F5E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAFFFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFDE7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0F2F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -251,11 +297,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00CCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -339,6 +434,74 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -778,8 +941,8 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -817,6 +980,10 @@
           <t xml:space="preserve">  ① 基本情報</t>
         </is>
       </c>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="14" t="n"/>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="4" t="inlineStr">
@@ -829,6 +996,9 @@
           <t>例）株式会社〇〇 / 山田 太郎</t>
         </is>
       </c>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="14" t="n"/>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="B9" s="6" t="inlineStr">
@@ -841,6 +1011,9 @@
           <t>例）田中 花子</t>
         </is>
       </c>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="14" t="n"/>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="6" t="inlineStr">
@@ -853,6 +1026,9 @@
           <t>例）info@example.com</t>
         </is>
       </c>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="14" t="n"/>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="B11" s="6" t="inlineStr">
@@ -865,6 +1041,9 @@
           <t>例）03-1234-5678</t>
         </is>
       </c>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="13" t="n"/>
+      <c r="F11" s="14" t="n"/>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="6" t="inlineStr">
@@ -891,6 +1070,9 @@
           <t>例）30〜50万円 / 月額20万円 など</t>
         </is>
       </c>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="13" t="n"/>
+      <c r="F13" s="14" t="n"/>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="B14" s="4" t="inlineStr">
@@ -903,6 +1085,9 @@
           <t>例）問い合わせ件数を増やしたい / 採用強化 / ブランド認知向上</t>
         </is>
       </c>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="14" t="n"/>
     </row>
     <row r="16" ht="22" customHeight="1">
       <c r="B16" s="3" t="inlineStr">
@@ -910,6 +1095,10 @@
           <t xml:space="preserve">  ② 優先度・重視ポイント（1つ選択）</t>
         </is>
       </c>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="B17" s="6" t="inlineStr">
@@ -934,6 +1123,10 @@
           <t xml:space="preserve">  ③ 素材・テキスト準備状況</t>
         </is>
       </c>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="14" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="6" t="inlineStr">
@@ -963,6 +1156,10 @@
           <t xml:space="preserve">  ④ 制作依頼内容</t>
         </is>
       </c>
+      <c r="C22" s="13" t="n"/>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="14" t="n"/>
     </row>
     <row r="23" ht="22" customHeight="1">
       <c r="B23" s="4" t="inlineStr">
@@ -997,9 +1194,16 @@
           <t>例）美容クリニックの糸リフトLP</t>
         </is>
       </c>
+      <c r="D24" s="31" t="n"/>
+      <c r="E24" s="31" t="n"/>
+      <c r="F24" s="32" t="n"/>
     </row>
     <row r="25" ht="22" customHeight="1">
       <c r="B25" s="12" t="n"/>
+      <c r="C25" s="33" t="n"/>
+      <c r="D25" s="34" t="n"/>
+      <c r="E25" s="34" t="n"/>
+      <c r="F25" s="35" t="n"/>
     </row>
     <row r="26" ht="22" customHeight="1">
       <c r="B26" s="6" t="inlineStr">
@@ -1034,6 +1238,9 @@
           <t>例）会員登録、予約、決済、会員別表示など</t>
         </is>
       </c>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="14" t="n"/>
     </row>
     <row r="28" ht="22" customHeight="1">
       <c r="B28" s="6" t="inlineStr">
@@ -1058,6 +1265,9 @@
           <t>例）https://example.com/</t>
         </is>
       </c>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="14" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="B31" s="3" t="inlineStr">
@@ -1065,6 +1275,10 @@
           <t xml:space="preserve">  ⑤ デザイン希望</t>
         </is>
       </c>
+      <c r="C31" s="13" t="n"/>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="14" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="B32" s="6" t="inlineStr">
@@ -1106,6 +1320,10 @@
           <t xml:space="preserve">  ⑥ 公開後・運用体制</t>
         </is>
       </c>
+      <c r="C35" s="13" t="n"/>
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="13" t="n"/>
+      <c r="F35" s="14" t="n"/>
     </row>
     <row r="36" ht="22" customHeight="1">
       <c r="B36" s="4" t="inlineStr">
@@ -1135,6 +1353,10 @@
           <t xml:space="preserve">  ⑦ 技術・環境関連</t>
         </is>
       </c>
+      <c r="C38" s="13" t="n"/>
+      <c r="D38" s="13" t="n"/>
+      <c r="E38" s="13" t="n"/>
+      <c r="F38" s="14" t="n"/>
     </row>
     <row r="39" ht="22" customHeight="1">
       <c r="B39" s="4" t="inlineStr">
@@ -1179,6 +1401,10 @@
           <t xml:space="preserve">  ⑧ 備考・その他ご要望</t>
         </is>
       </c>
+      <c r="C42" s="13" t="n"/>
+      <c r="D42" s="13" t="n"/>
+      <c r="E42" s="13" t="n"/>
+      <c r="F42" s="14" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="B43" s="6" t="inlineStr">
@@ -1191,15 +1417,26 @@
           <t>自由にご記入ください</t>
         </is>
       </c>
+      <c r="D43" s="31" t="n"/>
+      <c r="E43" s="31" t="n"/>
+      <c r="F43" s="32" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="B44" s="12" t="n"/>
+      <c r="C44" s="36" t="n"/>
+      <c r="F44" s="37" t="n"/>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="B45" s="12" t="n"/>
+      <c r="C45" s="36" t="n"/>
+      <c r="F45" s="37" t="n"/>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="B46" s="12" t="n"/>
+      <c r="C46" s="33" t="n"/>
+      <c r="D46" s="34" t="n"/>
+      <c r="E46" s="34" t="n"/>
+      <c r="F46" s="35" t="n"/>
     </row>
     <row r="48" ht="22" customHeight="1">
       <c r="B48" s="15" t="inlineStr">
@@ -1207,12 +1444,17 @@
           <t xml:space="preserve">  ◆ 入力チェック（必須項目）</t>
         </is>
       </c>
+      <c r="C48" s="13" t="n"/>
+      <c r="D48" s="13" t="n"/>
+      <c r="E48" s="13" t="n"/>
+      <c r="F48" s="14" t="n"/>
     </row>
     <row r="49" ht="36" customHeight="1">
       <c r="B49" s="16">
         <f>COUNTA(C8,F12,C13,C14,C23,F26,C36,C39,F39)</f>
         <v/>
       </c>
+      <c r="C49" s="14" t="n"/>
       <c r="D49" s="17" t="inlineStr">
         <is>
           <t>/ 9 項目入力済み</t>
@@ -1222,6 +1464,7 @@
         <f>IFS(COUNTA(C8,F12,C13,C14,C23,F26,C36,C39,F39)=9,"✔  入力完了 — 送付可能",COUNTA(C8,F12,C13,C14,C23,F26,C36,C39,F39)&gt;=5,"⚠  入力中 — 残り項目あり",TRUE,"✗  未入力項目が多数あります")</f>
         <v/>
       </c>
+      <c r="F49" s="14" t="n"/>
     </row>
     <row r="50" ht="16" customHeight="1"/>
     <row r="51" ht="18" customHeight="1">
@@ -1489,6 +1732,1339 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000796B"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F79"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.5" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="1.5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Web 制作  ヒアリングシート</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1"/>
+    <row r="3" ht="18" customHeight="1"/>
+    <row r="4" ht="18" customHeight="1"/>
+    <row r="5" ht="16" customHeight="1">
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>契約後の詳細ヒアリング　　★ = 必須項目</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ① ライティング</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="14" t="n"/>
+    </row>
+    <row r="8" ht="22" customHeight="1">
+      <c r="B8" s="40" t="inlineStr">
+        <is>
+          <t>★ 会社名 / 個人名</t>
+        </is>
+      </c>
+      <c r="C8" s="41" t="inlineStr">
+        <is>
+          <t>例）株式会社〇〇 / 山田 太郎</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="14" t="n"/>
+    </row>
+    <row r="9" ht="22" customHeight="1">
+      <c r="B9" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 既存サイト URL</t>
+        </is>
+      </c>
+      <c r="C9" s="43" t="inlineStr">
+        <is>
+          <t>URLを記載してください。改行で複数指定可</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="n"/>
+      <c r="E9" s="31" t="n"/>
+      <c r="F9" s="32" t="n"/>
+    </row>
+    <row r="10" ht="22" customHeight="1">
+      <c r="B10" s="44" t="n"/>
+      <c r="C10" s="33" t="n"/>
+      <c r="D10" s="34" t="n"/>
+      <c r="E10" s="34" t="n"/>
+      <c r="F10" s="35" t="n"/>
+    </row>
+    <row r="11" ht="22" customHeight="1">
+      <c r="B11" s="40" t="inlineStr">
+        <is>
+          <t>★ テキストの準備</t>
+        </is>
+      </c>
+      <c r="C11" s="45" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="E11" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 ブランドトーン</t>
+        </is>
+      </c>
+      <c r="F11" s="45" t="inlineStr">
+        <is>
+          <t>フレンドリー</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="22" customHeight="1">
+      <c r="B12" s="40" t="inlineStr">
+        <is>
+          <t>★ 事業概要</t>
+        </is>
+      </c>
+      <c r="C12" s="43" t="inlineStr">
+        <is>
+          <t>事業内容・提供価値・沿革・強みなど</t>
+        </is>
+      </c>
+      <c r="D12" s="31" t="n"/>
+      <c r="E12" s="31" t="n"/>
+      <c r="F12" s="32" t="n"/>
+    </row>
+    <row r="13" ht="22" customHeight="1">
+      <c r="B13" s="44" t="n"/>
+      <c r="C13" s="36" t="n"/>
+      <c r="F13" s="37" t="n"/>
+    </row>
+    <row r="14" ht="22" customHeight="1">
+      <c r="B14" s="44" t="n"/>
+      <c r="C14" s="33" t="n"/>
+      <c r="D14" s="34" t="n"/>
+      <c r="E14" s="34" t="n"/>
+      <c r="F14" s="35" t="n"/>
+    </row>
+    <row r="15" ht="22" customHeight="1">
+      <c r="B15" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 提供サービス</t>
+        </is>
+      </c>
+      <c r="C15" s="43" t="inlineStr">
+        <is>
+          <t>主力/周辺サービスや商品、価格帯</t>
+        </is>
+      </c>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="31" t="n"/>
+      <c r="F15" s="32" t="n"/>
+    </row>
+    <row r="16" ht="22" customHeight="1">
+      <c r="B16" s="44" t="n"/>
+      <c r="C16" s="33" t="n"/>
+      <c r="D16" s="34" t="n"/>
+      <c r="E16" s="34" t="n"/>
+      <c r="F16" s="35" t="n"/>
+    </row>
+    <row r="17" ht="22" customHeight="1">
+      <c r="B17" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 ターゲット</t>
+        </is>
+      </c>
+      <c r="C17" s="43" t="inlineStr">
+        <is>
+          <t>性別/年代/地域/課題/購買動機など</t>
+        </is>
+      </c>
+      <c r="D17" s="31" t="n"/>
+      <c r="E17" s="31" t="n"/>
+      <c r="F17" s="32" t="n"/>
+    </row>
+    <row r="18" ht="22" customHeight="1">
+      <c r="B18" s="44" t="n"/>
+      <c r="C18" s="33" t="n"/>
+      <c r="D18" s="34" t="n"/>
+      <c r="E18" s="34" t="n"/>
+      <c r="F18" s="35" t="n"/>
+    </row>
+    <row r="19" ht="22" customHeight="1">
+      <c r="B19" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 競合 / 参考 URL ①</t>
+        </is>
+      </c>
+      <c r="C19" s="41" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="14" t="n"/>
+    </row>
+    <row r="20" ht="22" customHeight="1">
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 競合 / 参考 URL ②</t>
+        </is>
+      </c>
+      <c r="C20" s="41" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="14" t="n"/>
+    </row>
+    <row r="21" ht="22" customHeight="1">
+      <c r="B21" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 競合 / 参考 URL ③</t>
+        </is>
+      </c>
+      <c r="C21" s="41" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="14" t="n"/>
+    </row>
+    <row r="22" ht="22" customHeight="1">
+      <c r="B22" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 主要 CTA</t>
+        </is>
+      </c>
+      <c r="C22" s="41" t="inlineStr">
+        <is>
+          <t>例）お問い合わせ / 資料請求 / 予約 など</t>
+        </is>
+      </c>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="14" t="n"/>
+    </row>
+    <row r="23" ht="22" customHeight="1">
+      <c r="B23" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 サイトマップ案</t>
+        </is>
+      </c>
+      <c r="C23" s="43" t="inlineStr">
+        <is>
+          <t>TOP / 会社情報 / 事業内容 / 実績 / 採用 / お問い合わせ など</t>
+        </is>
+      </c>
+      <c r="D23" s="31" t="n"/>
+      <c r="E23" s="31" t="n"/>
+      <c r="F23" s="32" t="n"/>
+    </row>
+    <row r="24" ht="22" customHeight="1">
+      <c r="B24" s="44" t="n"/>
+      <c r="C24" s="33" t="n"/>
+      <c r="D24" s="34" t="n"/>
+      <c r="E24" s="34" t="n"/>
+      <c r="F24" s="35" t="n"/>
+    </row>
+    <row r="25" ht="22" customHeight="1">
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 SEO キーワード候補</t>
+        </is>
+      </c>
+      <c r="C25" s="41" t="inlineStr">
+        <is>
+          <t>カンマまたは改行で区切って記入</t>
+        </is>
+      </c>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="14" t="n"/>
+    </row>
+    <row r="26" ht="22" customHeight="1">
+      <c r="B26" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 NG ワード・避けたい表現</t>
+        </is>
+      </c>
+      <c r="C26" s="41" t="inlineStr">
+        <is>
+          <t>例）競合他社名、特定の表現など</t>
+        </is>
+      </c>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="14" t="n"/>
+    </row>
+    <row r="27" ht="22" customHeight="1">
+      <c r="B27" s="40" t="inlineStr">
+        <is>
+          <t>★ サイト・ページのタイトル</t>
+        </is>
+      </c>
+      <c r="C27" s="41" t="inlineStr">
+        <is>
+          <t>制作するサイトのタイトルを入力してください</t>
+        </is>
+      </c>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="14" t="n"/>
+    </row>
+    <row r="28" ht="22" customHeight="1">
+      <c r="B28" s="40" t="inlineStr">
+        <is>
+          <t>★ サイトの説明文（ディスクリプション）</t>
+        </is>
+      </c>
+      <c r="C28" s="43" t="inlineStr">
+        <is>
+          <t>サイトの説明文を入力してください</t>
+        </is>
+      </c>
+      <c r="D28" s="31" t="n"/>
+      <c r="E28" s="31" t="n"/>
+      <c r="F28" s="32" t="n"/>
+    </row>
+    <row r="29" ht="22" customHeight="1">
+      <c r="B29" s="44" t="n"/>
+      <c r="C29" s="33" t="n"/>
+      <c r="D29" s="34" t="n"/>
+      <c r="E29" s="34" t="n"/>
+      <c r="F29" s="35" t="n"/>
+    </row>
+    <row r="31" ht="24" customHeight="1">
+      <c r="B31" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ② デザイン制作</t>
+        </is>
+      </c>
+      <c r="C31" s="13" t="n"/>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="14" t="n"/>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="B32" s="46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　SPのみ選択 → SPのみデザイン制作　／　PCデザイン選択 → PCのみ制作　／　PC＋SP両方ご希望の場合は別途費用が追加となります</t>
+        </is>
+      </c>
+      <c r="C32" s="13" t="n"/>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="14" t="n"/>
+    </row>
+    <row r="33" ht="22" customHeight="1">
+      <c r="B33" s="40" t="inlineStr">
+        <is>
+          <t>★ PCデザイン</t>
+        </is>
+      </c>
+      <c r="C33" s="45" t="inlineStr">
+        <is>
+          <t>PCデザイン</t>
+        </is>
+      </c>
+      <c r="E33" s="40" t="inlineStr">
+        <is>
+          <t>★ 参考サイト URL ①</t>
+        </is>
+      </c>
+      <c r="F33" s="41" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="1">
+      <c r="B34" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 参考サイト URL ②</t>
+        </is>
+      </c>
+      <c r="C34" s="41" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="E34" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 参考サイト URL ③</t>
+        </is>
+      </c>
+      <c r="F34" s="41" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="1">
+      <c r="B35" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 参考サイト URL ④</t>
+        </is>
+      </c>
+      <c r="C35" s="41" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="E35" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 参考サイト URL ⑤</t>
+        </is>
+      </c>
+      <c r="F35" s="41" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="22" customHeight="1">
+      <c r="B36" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 ロゴの有無</t>
+        </is>
+      </c>
+      <c r="C36" s="45" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="E36" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 ブランドカラー</t>
+        </is>
+      </c>
+      <c r="F36" s="41" t="inlineStr">
+        <is>
+          <t>#111111, #C81E1E など</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="1">
+      <c r="B37" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 ロゴ / ブランドガイド添付 URL</t>
+        </is>
+      </c>
+      <c r="C37" s="41" t="inlineStr">
+        <is>
+          <t>ギガファイル便等のURLを記載してください</t>
+        </is>
+      </c>
+      <c r="E37" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 使用したいフォント</t>
+        </is>
+      </c>
+      <c r="F37" s="41" t="inlineStr">
+        <is>
+          <t>例）Noto Sans JP / 游ゴシック など</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="22" customHeight="1">
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 写真 / 素材の有無</t>
+        </is>
+      </c>
+      <c r="C38" s="45" t="inlineStr">
+        <is>
+          <t>素材探し希望</t>
+        </is>
+      </c>
+      <c r="E38" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 写真 / 素材アップロード URL</t>
+        </is>
+      </c>
+      <c r="F38" s="41" t="inlineStr">
+        <is>
+          <t>ギガファイル便等のURLを記載してください</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="22" customHeight="1">
+      <c r="B39" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 サイトで使用したいカラー</t>
+        </is>
+      </c>
+      <c r="C39" s="41" t="inlineStr">
+        <is>
+          <t>#000000, #FFFFFF など</t>
+        </is>
+      </c>
+      <c r="E39" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 素材ファイルの添付 URL</t>
+        </is>
+      </c>
+      <c r="F39" s="41" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="22" customHeight="1">
+      <c r="B40" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 デザインのムード（複数選択可）</t>
+        </is>
+      </c>
+      <c r="C40" s="13" t="n"/>
+      <c r="D40" s="13" t="n"/>
+      <c r="E40" s="13" t="n"/>
+      <c r="F40" s="14" t="n"/>
+    </row>
+    <row r="41" ht="22" customHeight="1">
+      <c r="B41" s="47" t="inlineStr">
+        <is>
+          <t>シンプル</t>
+        </is>
+      </c>
+      <c r="C41" s="13" t="n"/>
+      <c r="D41" s="13" t="n"/>
+      <c r="E41" s="13" t="n"/>
+      <c r="F41" s="14" t="n"/>
+    </row>
+    <row r="42" ht="18" customHeight="1">
+      <c r="B42" s="48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 ※ 上記以外のムード・補足があれば自由記入</t>
+        </is>
+      </c>
+      <c r="C42" s="13" t="n"/>
+      <c r="D42" s="13" t="n"/>
+      <c r="E42" s="13" t="n"/>
+      <c r="F42" s="14" t="n"/>
+    </row>
+    <row r="43" ht="22" customHeight="1">
+      <c r="B43" s="43" t="inlineStr">
+        <is>
+          <t>例）ラグジュアリー感を出しつつも親しみやすいトーン</t>
+        </is>
+      </c>
+      <c r="C43" s="31" t="n"/>
+      <c r="D43" s="31" t="n"/>
+      <c r="E43" s="31" t="n"/>
+      <c r="F43" s="32" t="n"/>
+    </row>
+    <row r="44" ht="22" customHeight="1">
+      <c r="B44" s="33" t="n"/>
+      <c r="C44" s="34" t="n"/>
+      <c r="D44" s="34" t="n"/>
+      <c r="E44" s="34" t="n"/>
+      <c r="F44" s="35" t="n"/>
+    </row>
+    <row r="45" ht="22" customHeight="1">
+      <c r="B45" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 デザインに込めたい想い・課題点</t>
+        </is>
+      </c>
+      <c r="C45" s="43" t="inlineStr">
+        <is>
+          <t>デザインへの想いや課題点などあればご記入ください</t>
+        </is>
+      </c>
+      <c r="D45" s="31" t="n"/>
+      <c r="E45" s="31" t="n"/>
+      <c r="F45" s="32" t="n"/>
+    </row>
+    <row r="46" ht="22" customHeight="1">
+      <c r="B46" s="44" t="n"/>
+      <c r="C46" s="36" t="n"/>
+      <c r="F46" s="37" t="n"/>
+    </row>
+    <row r="47" ht="22" customHeight="1">
+      <c r="B47" s="44" t="n"/>
+      <c r="C47" s="33" t="n"/>
+      <c r="D47" s="34" t="n"/>
+      <c r="E47" s="34" t="n"/>
+      <c r="F47" s="35" t="n"/>
+    </row>
+    <row r="49" ht="24" customHeight="1">
+      <c r="B49" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ③ コーディング情報</t>
+        </is>
+      </c>
+      <c r="C49" s="13" t="n"/>
+      <c r="D49" s="13" t="n"/>
+      <c r="E49" s="13" t="n"/>
+      <c r="F49" s="14" t="n"/>
+    </row>
+    <row r="50" ht="22" customHeight="1">
+      <c r="B50" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 ドメイン</t>
+        </is>
+      </c>
+      <c r="C50" s="41" t="inlineStr">
+        <is>
+          <t>例）example.com</t>
+        </is>
+      </c>
+      <c r="E50" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 サーバー</t>
+        </is>
+      </c>
+      <c r="F50" s="41" t="inlineStr">
+        <is>
+          <t>例）Xserver / ConoHa / さくら など</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="22" customHeight="1">
+      <c r="B51" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 CMS</t>
+        </is>
+      </c>
+      <c r="C51" s="45" t="inlineStr">
+        <is>
+          <t>WordPress</t>
+        </is>
+      </c>
+      <c r="E51" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 想定ページ数</t>
+        </is>
+      </c>
+      <c r="F51" s="49" t="inlineStr">
+        <is>
+          <t>例）10</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="1">
+      <c r="B52" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 フォーム機能の有無</t>
+        </is>
+      </c>
+      <c r="C52" s="45" t="inlineStr">
+        <is>
+          <t>なし</t>
+        </is>
+      </c>
+      <c r="E52" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 送付先メールアドレス（フォームありの場合）</t>
+        </is>
+      </c>
+      <c r="F52" s="41" t="inlineStr">
+        <is>
+          <t>例）info@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="1">
+      <c r="B53" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 LINE の掲載有無</t>
+        </is>
+      </c>
+      <c r="C53" s="45" t="inlineStr">
+        <is>
+          <t>掲載しない</t>
+        </is>
+      </c>
+      <c r="E53" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 LINE リンク（掲載する場合）</t>
+        </is>
+      </c>
+      <c r="F53" s="41" t="inlineStr">
+        <is>
+          <t>https://lin.ee/...</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="22" customHeight="1">
+      <c r="B54" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 公開希望時期</t>
+        </is>
+      </c>
+      <c r="C54" s="50" t="n"/>
+      <c r="E54" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 公開希望 URL</t>
+        </is>
+      </c>
+      <c r="F54" s="41" t="inlineStr">
+        <is>
+          <t>https://example.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="22" customHeight="1">
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 FTP 情報</t>
+        </is>
+      </c>
+      <c r="C55" s="41" t="inlineStr">
+        <is>
+          <t>FTPホスト / ユーザー名 / パスワード など</t>
+        </is>
+      </c>
+      <c r="D55" s="13" t="n"/>
+      <c r="E55" s="13" t="n"/>
+      <c r="F55" s="14" t="n"/>
+    </row>
+    <row r="56" ht="22" customHeight="1">
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 WordPress 管理画面 URL</t>
+        </is>
+      </c>
+      <c r="C56" s="41" t="inlineStr">
+        <is>
+          <t>https://example.com/wp-admin/</t>
+        </is>
+      </c>
+      <c r="E56" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 WordPress ユーザー名</t>
+        </is>
+      </c>
+      <c r="F56" s="51" t="n"/>
+    </row>
+    <row r="57" ht="22" customHeight="1">
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 WordPress パスワード</t>
+        </is>
+      </c>
+      <c r="C57" s="51" t="n"/>
+      <c r="E57" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 サーバー接続情報</t>
+        </is>
+      </c>
+      <c r="F57" s="41" t="inlineStr">
+        <is>
+          <t>SSH情報 / コントロールパネルURL / その他</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="22" customHeight="1">
+      <c r="B58" s="42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 その他要望</t>
+        </is>
+      </c>
+      <c r="C58" s="43" t="inlineStr">
+        <is>
+          <t>自由にご記入ください</t>
+        </is>
+      </c>
+      <c r="D58" s="31" t="n"/>
+      <c r="E58" s="31" t="n"/>
+      <c r="F58" s="32" t="n"/>
+    </row>
+    <row r="59" ht="22" customHeight="1">
+      <c r="B59" s="44" t="n"/>
+      <c r="C59" s="33" t="n"/>
+      <c r="D59" s="34" t="n"/>
+      <c r="E59" s="34" t="n"/>
+      <c r="F59" s="35" t="n"/>
+    </row>
+    <row r="61" ht="24" customHeight="1">
+      <c r="B61" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ④ オプション（追加オプションは別途お見積り）</t>
+        </is>
+      </c>
+      <c r="C61" s="13" t="n"/>
+      <c r="D61" s="13" t="n"/>
+      <c r="E61" s="13" t="n"/>
+      <c r="F61" s="14" t="n"/>
+    </row>
+    <row r="62" ht="22" customHeight="1">
+      <c r="B62" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="C62" s="52" t="inlineStr">
+        <is>
+          <t>デザイン追加（PC/SPカンプ追加・下層追加 等）</t>
+        </is>
+      </c>
+      <c r="E62" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="F62" s="52" t="inlineStr">
+        <is>
+          <t>プライバシーポリシー作成</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="1">
+      <c r="B63" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="C63" s="52" t="inlineStr">
+        <is>
+          <t>特商法ページ作成</t>
+        </is>
+      </c>
+      <c r="E63" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="F63" s="52" t="inlineStr">
+        <is>
+          <t>ライティング代行（原稿作成）</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="22" customHeight="1">
+      <c r="B64" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="C64" s="52" t="inlineStr">
+        <is>
+          <t>写真撮影 / 画像編集</t>
+        </is>
+      </c>
+      <c r="E64" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="F64" s="52" t="inlineStr">
+        <is>
+          <t>ロゴ制作</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="22" customHeight="1">
+      <c r="B65" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="C65" s="52" t="inlineStr">
+        <is>
+          <t>アクセス解析設定（GTM / GA4）</t>
+        </is>
+      </c>
+      <c r="E65" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="F65" s="52" t="inlineStr">
+        <is>
+          <t>SEO初期設定（メタ / OGP / 構造化）</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="1">
+      <c r="B66" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="C66" s="52" t="inlineStr">
+        <is>
+          <t>サイト速度改善</t>
+        </is>
+      </c>
+      <c r="E66" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="F66" s="52" t="inlineStr">
+        <is>
+          <t>多言語対応</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="1">
+      <c r="B67" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="C67" s="52" t="inlineStr">
+        <is>
+          <t>保守・更新（運用サポート）</t>
+        </is>
+      </c>
+      <c r="E67" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="F67" s="52" t="inlineStr">
+        <is>
+          <t>予約 / 決済など機能追加</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="22" customHeight="1">
+      <c r="B68" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="C68" s="52" t="inlineStr">
+        <is>
+          <t>ブログ / お知らせ機能構築</t>
+        </is>
+      </c>
+      <c r="E68" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="F68" s="52" t="inlineStr">
+        <is>
+          <t>機能性メールフォーム</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="22" customHeight="1">
+      <c r="B69" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="C69" s="52" t="inlineStr">
+        <is>
+          <t>フォームのサンクスページ作成</t>
+        </is>
+      </c>
+      <c r="E69" s="45" t="inlineStr">
+        <is>
+          <t>希望しない</t>
+        </is>
+      </c>
+      <c r="F69" s="52" t="inlineStr">
+        <is>
+          <t>デザインのパターン制作</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="24" customHeight="1">
+      <c r="B71" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ◆ 入力チェック（必須項目）</t>
+        </is>
+      </c>
+      <c r="C71" s="13" t="n"/>
+      <c r="D71" s="13" t="n"/>
+      <c r="E71" s="13" t="n"/>
+      <c r="F71" s="14" t="n"/>
+    </row>
+    <row r="72" ht="36" customHeight="1">
+      <c r="B72" s="54">
+        <f>COUNTA(C8,C11,C12,C27,C28,F33,C33)</f>
+        <v/>
+      </c>
+      <c r="C72" s="14" t="n"/>
+      <c r="D72" s="17" t="inlineStr">
+        <is>
+          <t>/ 7 項目入力済み</t>
+        </is>
+      </c>
+      <c r="E72" s="18">
+        <f>IFS(COUNTA(C8,C11,C12,C27,C28,F33,C33)=7,"✔  入力完了 — 送付可能",COUNTA(C8,C11,C12,C27,C28,F33,C33)&gt;=4,"⚠  入力中 — 残り項目あり",TRUE,"✗  未入力項目が多数あります")</f>
+        <v/>
+      </c>
+      <c r="F72" s="14" t="n"/>
+    </row>
+    <row r="73" ht="18" customHeight="1">
+      <c r="B73" s="18">
+        <f>IF(IFERROR(LEN(C8)&gt;0,FALSE),"✔","✗")</f>
+        <v/>
+      </c>
+      <c r="C73" s="19" t="inlineStr">
+        <is>
+          <t>会社名 / 個人名</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="18" customHeight="1">
+      <c r="B74" s="18">
+        <f>IF(IFERROR(LEN(C11)&gt;0,FALSE),"✔","✗")</f>
+        <v/>
+      </c>
+      <c r="C74" s="19" t="inlineStr">
+        <is>
+          <t>テキストの準備</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="18" customHeight="1">
+      <c r="B75" s="18">
+        <f>IF(IFERROR(LEN(C12)&gt;0,FALSE),"✔","✗")</f>
+        <v/>
+      </c>
+      <c r="C75" s="19" t="inlineStr">
+        <is>
+          <t>事業概要</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="18" customHeight="1">
+      <c r="B76" s="18">
+        <f>IF(IFERROR(LEN(C27)&gt;0,FALSE),"✔","✗")</f>
+        <v/>
+      </c>
+      <c r="C76" s="19" t="inlineStr">
+        <is>
+          <t>サイト・ページのタイトル</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="18" customHeight="1">
+      <c r="B77" s="18">
+        <f>IF(IFERROR(LEN(C28)&gt;0,FALSE),"✔","✗")</f>
+        <v/>
+      </c>
+      <c r="C77" s="19" t="inlineStr">
+        <is>
+          <t>サイトの説明文（ディスクリプション）</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="18" customHeight="1">
+      <c r="B78" s="18">
+        <f>IF(IFERROR(LEN(C33)&gt;0,FALSE),"✔","✗")</f>
+        <v/>
+      </c>
+      <c r="C78" s="19" t="inlineStr">
+        <is>
+          <t>PCデザイン</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="18" customHeight="1">
+      <c r="B79" s="18">
+        <f>IF(IFERROR(LEN(F33)&gt;0,FALSE),"✔","✗")</f>
+        <v/>
+      </c>
+      <c r="C79" s="19" t="inlineStr">
+        <is>
+          <t>参考サイト URL ①</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="C12:F14"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B1:F4"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="C45:F47"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B43:F44"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C28:F29"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="C58:F59"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B62:C62">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>$B$62="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:F62">
+    <cfRule type="expression" priority="2" dxfId="3">
+      <formula>$E$62="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:C63">
+    <cfRule type="expression" priority="3" dxfId="3">
+      <formula>$B$63="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:F63">
+    <cfRule type="expression" priority="4" dxfId="3">
+      <formula>$E$63="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64:C64">
+    <cfRule type="expression" priority="5" dxfId="3">
+      <formula>$B$64="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64:F64">
+    <cfRule type="expression" priority="6" dxfId="3">
+      <formula>$E$64="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:C65">
+    <cfRule type="expression" priority="7" dxfId="3">
+      <formula>$B$65="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:F65">
+    <cfRule type="expression" priority="8" dxfId="3">
+      <formula>$E$65="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:C66">
+    <cfRule type="expression" priority="9" dxfId="3">
+      <formula>$B$66="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:F66">
+    <cfRule type="expression" priority="10" dxfId="3">
+      <formula>$E$66="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:C67">
+    <cfRule type="expression" priority="11" dxfId="3">
+      <formula>$B$67="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:F67">
+    <cfRule type="expression" priority="12" dxfId="3">
+      <formula>$E$67="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:C68">
+    <cfRule type="expression" priority="13" dxfId="3">
+      <formula>$B$68="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:F68">
+    <cfRule type="expression" priority="14" dxfId="3">
+      <formula>$E$68="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:C69">
+    <cfRule type="expression" priority="15" dxfId="3">
+      <formula>$B$69="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:F69">
+    <cfRule type="expression" priority="16" dxfId="3">
+      <formula>$E$69="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:F72">
+    <cfRule type="expression" priority="17" dxfId="0">
+      <formula>COUNTA(C8,C11,C12,C27,C28,F33,C33)=7</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" dxfId="1">
+      <formula>AND(COUNTA(C8,C11,C12,C27,C28,F33,C33)&gt;=4,COUNTA(C8,C11,C12,C27,C28,F33,C33)&lt;7)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19" dxfId="2">
+      <formula>COUNTA(C8,C11,C12,C27,C28,F33,C33)&lt;4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:C73">
+    <cfRule type="expression" priority="20" dxfId="3">
+      <formula>LEN(C8)&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" dxfId="4">
+      <formula>LEN(C8)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:C74">
+    <cfRule type="expression" priority="22" dxfId="3">
+      <formula>LEN(C11)&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="23" dxfId="4">
+      <formula>LEN(C11)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:C75">
+    <cfRule type="expression" priority="24" dxfId="3">
+      <formula>LEN(C12)&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" dxfId="4">
+      <formula>LEN(C12)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:C76">
+    <cfRule type="expression" priority="26" dxfId="3">
+      <formula>LEN(C27)&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="4">
+      <formula>LEN(C27)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B77:C77">
+    <cfRule type="expression" priority="28" dxfId="3">
+      <formula>LEN(C28)&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="4">
+      <formula>LEN(C28)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B78:C78">
+    <cfRule type="expression" priority="30" dxfId="3">
+      <formula>LEN(C33)&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="31" dxfId="4">
+      <formula>LEN(C33)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:C79">
+    <cfRule type="expression" priority="32" dxfId="3">
+      <formula>LEN(F33)&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33" dxfId="4">
+      <formula>LEN(F33)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="25">
+    <dataValidation sqref="C11" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"あり,なし"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F11" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"フレンドリー,ビジネス/堅め,高級感,やわらかい,その他"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C33" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"SPのみ,PCデザイン"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C36" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"あり,なし"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C38" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"提供可能,素材探し希望"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B41" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"シンプル,スタイリッシュ,信頼感,親しみやすい,和モダン,ポップ,かわいい,にぎやか,信頼感・安心感のある,健康・癒し,力強い,高級感,ナチュラル,男性向け,女性向け,エンタメ"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C51" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"WordPress,その他,CMSは無し"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C52" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"あり,なし"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"掲載する,掲載しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B62" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E62" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B63" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E63" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B64" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E64" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B65" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E65" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B66" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E66" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B67" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E67" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B68" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E68" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="B69" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E69" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" errorTitle="入力エラー" error="リストから選択してください" type="list">
+      <formula1>"希望する,希望しない"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor rgb="004A90D9"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1497,8 +3073,8 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1536,6 +3112,10 @@
           <t xml:space="preserve">  基本情報</t>
         </is>
       </c>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="14" t="n"/>
     </row>
     <row r="8" ht="22" customHeight="1">
       <c r="B8" s="6" t="inlineStr">
@@ -1547,6 +3127,9 @@
         <f>IFERROR('ヒアリングシート'!C8,"")</f>
         <v/>
       </c>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="14" t="n"/>
     </row>
     <row r="9" ht="22" customHeight="1">
       <c r="B9" s="6" t="inlineStr">
@@ -1558,6 +3141,9 @@
         <f>IFERROR('ヒアリングシート'!C9,"")</f>
         <v/>
       </c>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="14" t="n"/>
     </row>
     <row r="10" ht="22" customHeight="1">
       <c r="B10" s="6" t="inlineStr">
@@ -1569,6 +3155,9 @@
         <f>IFERROR('ヒアリングシート'!C10,"")</f>
         <v/>
       </c>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="14" t="n"/>
     </row>
     <row r="11" ht="22" customHeight="1">
       <c r="B11" s="6" t="inlineStr">
@@ -1580,6 +3169,9 @@
         <f>IFERROR('ヒアリングシート'!C11,"")</f>
         <v/>
       </c>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="13" t="n"/>
+      <c r="F11" s="14" t="n"/>
     </row>
     <row r="12" ht="22" customHeight="1">
       <c r="B12" s="6" t="inlineStr">
@@ -1591,6 +3183,9 @@
         <f>IFERROR(TEXT('ヒアリングシート'!C12,"YYYY/MM/DD"),"")</f>
         <v/>
       </c>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="14" t="n"/>
     </row>
     <row r="13" ht="22" customHeight="1">
       <c r="B13" s="6" t="inlineStr">
@@ -1602,6 +3197,9 @@
         <f>IFERROR(TEXT('ヒアリングシート'!F12,"YYYY/MM/DD"),"")</f>
         <v/>
       </c>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="13" t="n"/>
+      <c r="F13" s="14" t="n"/>
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="B14" s="6" t="inlineStr">
@@ -1613,6 +3211,9 @@
         <f>IFERROR('ヒアリングシート'!C13,"")</f>
         <v/>
       </c>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="14" t="n"/>
     </row>
     <row r="15" ht="22" customHeight="1">
       <c r="B15" s="6" t="inlineStr">
@@ -1624,6 +3225,9 @@
         <f>IFERROR('ヒアリングシート'!C14,"")</f>
         <v/>
       </c>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="13" t="n"/>
+      <c r="F15" s="14" t="n"/>
     </row>
     <row r="17" ht="22" customHeight="1">
       <c r="B17" s="3" t="inlineStr">
@@ -1631,6 +3235,10 @@
           <t xml:space="preserve">  制作依頼内容</t>
         </is>
       </c>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="14" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
       <c r="B18" s="6" t="inlineStr">
@@ -1642,6 +3250,9 @@
         <f>IFERROR('ヒアリングシート'!C17,"")</f>
         <v/>
       </c>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="14" t="n"/>
     </row>
     <row r="19" ht="22" customHeight="1">
       <c r="B19" s="6" t="inlineStr">
@@ -1653,6 +3264,9 @@
         <f>IFERROR('ヒアリングシート'!C23,"")</f>
         <v/>
       </c>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="14" t="n"/>
     </row>
     <row r="20" ht="22" customHeight="1">
       <c r="B20" s="6" t="inlineStr">
@@ -1664,6 +3278,9 @@
         <f>IFERROR('ヒアリングシート'!F23,"")</f>
         <v/>
       </c>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="14" t="n"/>
     </row>
     <row r="21" ht="22" customHeight="1">
       <c r="B21" s="6" t="inlineStr">
@@ -1675,6 +3292,9 @@
         <f>IFERROR('ヒアリングシート'!C24,"")</f>
         <v/>
       </c>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="14" t="n"/>
     </row>
     <row r="22" ht="22" customHeight="1">
       <c r="B22" s="6" t="inlineStr">
@@ -1686,6 +3306,9 @@
         <f>IFERROR('ヒアリングシート'!C26,"")</f>
         <v/>
       </c>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="14" t="n"/>
     </row>
     <row r="23" ht="22" customHeight="1">
       <c r="B23" s="6" t="inlineStr">
@@ -1697,6 +3320,9 @@
         <f>IFERROR('ヒアリングシート'!C27,"")</f>
         <v/>
       </c>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="14" t="n"/>
     </row>
     <row r="24" ht="22" customHeight="1">
       <c r="B24" s="6" t="inlineStr">
@@ -1708,6 +3334,9 @@
         <f>IFERROR('ヒアリングシート'!C28,"")</f>
         <v/>
       </c>
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="13" t="n"/>
+      <c r="F24" s="14" t="n"/>
     </row>
     <row r="25" ht="22" customHeight="1">
       <c r="B25" s="6" t="inlineStr">
@@ -1719,6 +3348,9 @@
         <f>IFERROR('ヒアリングシート'!F26,"")</f>
         <v/>
       </c>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="14" t="n"/>
     </row>
     <row r="26" ht="22" customHeight="1">
       <c r="B26" s="6" t="inlineStr">
@@ -1730,6 +3362,9 @@
         <f>IFERROR('ヒアリングシート'!C29,"")</f>
         <v/>
       </c>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="14" t="n"/>
     </row>
     <row r="28" ht="22" customHeight="1">
       <c r="B28" s="3" t="inlineStr">
@@ -1737,6 +3372,10 @@
           <t xml:space="preserve">  デザイン・技術環境</t>
         </is>
       </c>
+      <c r="C28" s="13" t="n"/>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="14" t="n"/>
     </row>
     <row r="29" ht="22" customHeight="1">
       <c r="B29" s="6" t="inlineStr">
@@ -1748,6 +3387,9 @@
         <f>IFERROR('ヒアリングシート'!C32,"")</f>
         <v/>
       </c>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="14" t="n"/>
     </row>
     <row r="30" ht="22" customHeight="1">
       <c r="B30" s="6" t="inlineStr">
@@ -1759,6 +3401,9 @@
         <f>IFERROR('ヒアリングシート'!F32,"")</f>
         <v/>
       </c>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="14" t="n"/>
     </row>
     <row r="31" ht="22" customHeight="1">
       <c r="B31" s="6" t="inlineStr">
@@ -1770,6 +3415,9 @@
         <f>IFERROR('ヒアリングシート'!C33,"")</f>
         <v/>
       </c>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="14" t="n"/>
     </row>
     <row r="32" ht="22" customHeight="1">
       <c r="B32" s="6" t="inlineStr">
@@ -1781,6 +3429,9 @@
         <f>IFERROR('ヒアリングシート'!C36,"")</f>
         <v/>
       </c>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="14" t="n"/>
     </row>
     <row r="33" ht="22" customHeight="1">
       <c r="B33" s="6" t="inlineStr">
@@ -1792,6 +3443,9 @@
         <f>IFERROR('ヒアリングシート'!F36,"")</f>
         <v/>
       </c>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="14" t="n"/>
     </row>
     <row r="34" ht="22" customHeight="1">
       <c r="B34" s="6" t="inlineStr">
@@ -1803,6 +3457,9 @@
         <f>IFERROR('ヒアリングシート'!C39,"")</f>
         <v/>
       </c>
+      <c r="D34" s="13" t="n"/>
+      <c r="E34" s="13" t="n"/>
+      <c r="F34" s="14" t="n"/>
     </row>
     <row r="35" ht="22" customHeight="1">
       <c r="B35" s="6" t="inlineStr">
@@ -1814,6 +3471,9 @@
         <f>IFERROR('ヒアリングシート'!F39,"")</f>
         <v/>
       </c>
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="13" t="n"/>
+      <c r="F35" s="14" t="n"/>
     </row>
     <row r="36" ht="22" customHeight="1">
       <c r="B36" s="6" t="inlineStr">
@@ -1825,6 +3485,9 @@
         <f>IFERROR('ヒアリングシート'!C40,"")</f>
         <v/>
       </c>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="13" t="n"/>
+      <c r="F36" s="14" t="n"/>
     </row>
     <row r="38" ht="22" customHeight="1">
       <c r="B38" s="3" t="inlineStr">
@@ -1832,6 +3495,10 @@
           <t xml:space="preserve">  素材・準備状況</t>
         </is>
       </c>
+      <c r="C38" s="13" t="n"/>
+      <c r="D38" s="13" t="n"/>
+      <c r="E38" s="13" t="n"/>
+      <c r="F38" s="14" t="n"/>
     </row>
     <row r="39" ht="22" customHeight="1">
       <c r="B39" s="6" t="inlineStr">
@@ -1843,6 +3510,9 @@
         <f>IFERROR('ヒアリングシート'!C20,"")</f>
         <v/>
       </c>
+      <c r="D39" s="13" t="n"/>
+      <c r="E39" s="13" t="n"/>
+      <c r="F39" s="14" t="n"/>
     </row>
     <row r="40" ht="22" customHeight="1">
       <c r="B40" s="6" t="inlineStr">
@@ -1854,6 +3524,9 @@
         <f>IFERROR('ヒアリングシート'!F20,"")</f>
         <v/>
       </c>
+      <c r="D40" s="13" t="n"/>
+      <c r="E40" s="13" t="n"/>
+      <c r="F40" s="14" t="n"/>
     </row>
     <row r="42" ht="22" customHeight="1">
       <c r="B42" s="3" t="inlineStr">
@@ -1861,6 +3534,10 @@
           <t xml:space="preserve">  備考・その他ご要望</t>
         </is>
       </c>
+      <c r="C42" s="13" t="n"/>
+      <c r="D42" s="13" t="n"/>
+      <c r="E42" s="13" t="n"/>
+      <c r="F42" s="14" t="n"/>
     </row>
     <row r="43" ht="60" customHeight="1">
       <c r="B43" s="24" t="inlineStr">
@@ -1872,6 +3549,9 @@
         <f>IFERROR('ヒアリングシート'!C43,"")</f>
         <v/>
       </c>
+      <c r="D43" s="13" t="n"/>
+      <c r="E43" s="13" t="n"/>
+      <c r="F43" s="14" t="n"/>
     </row>
     <row r="45" ht="22" customHeight="1">
       <c r="B45" s="15" t="inlineStr">
@@ -1879,12 +3559,20 @@
           <t xml:space="preserve">  入力ステータス</t>
         </is>
       </c>
+      <c r="C45" s="13" t="n"/>
+      <c r="D45" s="13" t="n"/>
+      <c r="E45" s="13" t="n"/>
+      <c r="F45" s="14" t="n"/>
     </row>
     <row r="46" ht="36" customHeight="1">
       <c r="B46" s="26">
         <f>IFERROR('ヒアリングシート'!E49,"")</f>
         <v/>
       </c>
+      <c r="C46" s="13" t="n"/>
+      <c r="D46" s="13" t="n"/>
+      <c r="E46" s="13" t="n"/>
+      <c r="F46" s="14" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -1931,7 +3619,1049 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000897B"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F72"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.5" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="1.5" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="1.5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Web 制作サマリー  ／  自動集計シート</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1"/>
+    <row r="3" ht="18" customHeight="1"/>
+    <row r="4" ht="18" customHeight="1"/>
+    <row r="5" ht="16" customHeight="1">
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>Web制作ヒアリングシートの入力内容を自動で集計・表示します（編集不要）</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  ライティング</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="13" t="n"/>
+      <c r="E7" s="13" t="n"/>
+      <c r="F7" s="14" t="n"/>
+    </row>
+    <row r="8" ht="22" customHeight="1">
+      <c r="B8" s="42" t="inlineStr">
+        <is>
+          <t>会社名 / 個人名</t>
+        </is>
+      </c>
+      <c r="C8" s="55">
+        <f>IFERROR('Web制作ヒアリング'!C8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="13" t="n"/>
+      <c r="E8" s="13" t="n"/>
+      <c r="F8" s="14" t="n"/>
+    </row>
+    <row r="9" ht="22" customHeight="1">
+      <c r="B9" s="42" t="inlineStr">
+        <is>
+          <t>既存サイト URL</t>
+        </is>
+      </c>
+      <c r="C9" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C9,"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="14" t="n"/>
+    </row>
+    <row r="10" ht="22" customHeight="1">
+      <c r="B10" s="42" t="inlineStr">
+        <is>
+          <t>テキストの準備</t>
+        </is>
+      </c>
+      <c r="C10" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C11,"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="14" t="n"/>
+    </row>
+    <row r="11" ht="22" customHeight="1">
+      <c r="B11" s="42" t="inlineStr">
+        <is>
+          <t>ブランドトーン</t>
+        </is>
+      </c>
+      <c r="C11" s="23">
+        <f>IFERROR('Web制作ヒアリング'!F11,"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="13" t="n"/>
+      <c r="F11" s="14" t="n"/>
+    </row>
+    <row r="12" ht="22" customHeight="1">
+      <c r="B12" s="42" t="inlineStr">
+        <is>
+          <t>事業概要</t>
+        </is>
+      </c>
+      <c r="C12" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C12,"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="13" t="n"/>
+      <c r="F12" s="14" t="n"/>
+    </row>
+    <row r="13" ht="22" customHeight="1">
+      <c r="B13" s="42" t="inlineStr">
+        <is>
+          <t>提供サービス</t>
+        </is>
+      </c>
+      <c r="C13" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C15,"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="13" t="n"/>
+      <c r="F13" s="14" t="n"/>
+    </row>
+    <row r="14" ht="22" customHeight="1">
+      <c r="B14" s="42" t="inlineStr">
+        <is>
+          <t>ターゲット</t>
+        </is>
+      </c>
+      <c r="C14" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C17,"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="13" t="n"/>
+      <c r="F14" s="14" t="n"/>
+    </row>
+    <row r="15" ht="22" customHeight="1">
+      <c r="B15" s="42" t="inlineStr">
+        <is>
+          <t>競合 / 参考 URL ①</t>
+        </is>
+      </c>
+      <c r="C15" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C19,"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="13" t="n"/>
+      <c r="F15" s="14" t="n"/>
+    </row>
+    <row r="16" ht="22" customHeight="1">
+      <c r="B16" s="42" t="inlineStr">
+        <is>
+          <t>競合 / 参考 URL ②</t>
+        </is>
+      </c>
+      <c r="C16" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C20,"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="14" t="n"/>
+    </row>
+    <row r="17" ht="22" customHeight="1">
+      <c r="B17" s="42" t="inlineStr">
+        <is>
+          <t>競合 / 参考 URL ③</t>
+        </is>
+      </c>
+      <c r="C17" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C21,"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="14" t="n"/>
+    </row>
+    <row r="18" ht="22" customHeight="1">
+      <c r="B18" s="42" t="inlineStr">
+        <is>
+          <t>主要 CTA</t>
+        </is>
+      </c>
+      <c r="C18" s="55">
+        <f>IFERROR('Web制作ヒアリング'!C22,"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="14" t="n"/>
+    </row>
+    <row r="19" ht="22" customHeight="1">
+      <c r="B19" s="42" t="inlineStr">
+        <is>
+          <t>サイトマップ案</t>
+        </is>
+      </c>
+      <c r="C19" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C23,"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="13" t="n"/>
+      <c r="F19" s="14" t="n"/>
+    </row>
+    <row r="20" ht="22" customHeight="1">
+      <c r="B20" s="42" t="inlineStr">
+        <is>
+          <t>SEO キーワード候補</t>
+        </is>
+      </c>
+      <c r="C20" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C25,"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="13" t="n"/>
+      <c r="F20" s="14" t="n"/>
+    </row>
+    <row r="21" ht="22" customHeight="1">
+      <c r="B21" s="42" t="inlineStr">
+        <is>
+          <t>NG ワード</t>
+        </is>
+      </c>
+      <c r="C21" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C26,"")</f>
+        <v/>
+      </c>
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="13" t="n"/>
+      <c r="F21" s="14" t="n"/>
+    </row>
+    <row r="22" ht="22" customHeight="1">
+      <c r="B22" s="42" t="inlineStr">
+        <is>
+          <t>サイト・ページタイトル</t>
+        </is>
+      </c>
+      <c r="C22" s="55">
+        <f>IFERROR('Web制作ヒアリング'!C27,"")</f>
+        <v/>
+      </c>
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="13" t="n"/>
+      <c r="F22" s="14" t="n"/>
+    </row>
+    <row r="23" ht="22" customHeight="1">
+      <c r="B23" s="42" t="inlineStr">
+        <is>
+          <t>ディスクリプション</t>
+        </is>
+      </c>
+      <c r="C23" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C28,"")</f>
+        <v/>
+      </c>
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="13" t="n"/>
+      <c r="F23" s="14" t="n"/>
+    </row>
+    <row r="25" ht="24" customHeight="1">
+      <c r="B25" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  デザイン制作</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="n"/>
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="13" t="n"/>
+      <c r="F25" s="14" t="n"/>
+    </row>
+    <row r="26" ht="22" customHeight="1">
+      <c r="B26" s="42" t="inlineStr">
+        <is>
+          <t>PCデザイン</t>
+        </is>
+      </c>
+      <c r="C26" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C33,"")</f>
+        <v/>
+      </c>
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="13" t="n"/>
+      <c r="F26" s="14" t="n"/>
+    </row>
+    <row r="27" ht="22" customHeight="1">
+      <c r="B27" s="42" t="inlineStr">
+        <is>
+          <t>参考サイト URL ①</t>
+        </is>
+      </c>
+      <c r="C27" s="55">
+        <f>IFERROR('Web制作ヒアリング'!F33,"")</f>
+        <v/>
+      </c>
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="13" t="n"/>
+      <c r="F27" s="14" t="n"/>
+    </row>
+    <row r="28" ht="22" customHeight="1">
+      <c r="B28" s="42" t="inlineStr">
+        <is>
+          <t>参考サイト URL ②</t>
+        </is>
+      </c>
+      <c r="C28" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C34,"")</f>
+        <v/>
+      </c>
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="13" t="n"/>
+      <c r="F28" s="14" t="n"/>
+    </row>
+    <row r="29" ht="22" customHeight="1">
+      <c r="B29" s="42" t="inlineStr">
+        <is>
+          <t>参考サイト URL ③</t>
+        </is>
+      </c>
+      <c r="C29" s="23">
+        <f>IFERROR('Web制作ヒアリング'!F34,"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="13" t="n"/>
+      <c r="F29" s="14" t="n"/>
+    </row>
+    <row r="30" ht="22" customHeight="1">
+      <c r="B30" s="42" t="inlineStr">
+        <is>
+          <t>参考サイト URL ④</t>
+        </is>
+      </c>
+      <c r="C30" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C35,"")</f>
+        <v/>
+      </c>
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="13" t="n"/>
+      <c r="F30" s="14" t="n"/>
+    </row>
+    <row r="31" ht="22" customHeight="1">
+      <c r="B31" s="42" t="inlineStr">
+        <is>
+          <t>参考サイト URL ⑤</t>
+        </is>
+      </c>
+      <c r="C31" s="23">
+        <f>IFERROR('Web制作ヒアリング'!F35,"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="13" t="n"/>
+      <c r="F31" s="14" t="n"/>
+    </row>
+    <row r="32" ht="22" customHeight="1">
+      <c r="B32" s="42" t="inlineStr">
+        <is>
+          <t>ロゴの有無</t>
+        </is>
+      </c>
+      <c r="C32" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C36,"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="13" t="n"/>
+      <c r="F32" s="14" t="n"/>
+    </row>
+    <row r="33" ht="22" customHeight="1">
+      <c r="B33" s="42" t="inlineStr">
+        <is>
+          <t>ブランドカラー</t>
+        </is>
+      </c>
+      <c r="C33" s="23">
+        <f>IFERROR('Web制作ヒアリング'!F36,"")</f>
+        <v/>
+      </c>
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="13" t="n"/>
+      <c r="F33" s="14" t="n"/>
+    </row>
+    <row r="34" ht="22" customHeight="1">
+      <c r="B34" s="42" t="inlineStr">
+        <is>
+          <t>使用したいフォント</t>
+        </is>
+      </c>
+      <c r="C34" s="23">
+        <f>IFERROR('Web制作ヒアリング'!F37,"")</f>
+        <v/>
+      </c>
+      <c r="D34" s="13" t="n"/>
+      <c r="E34" s="13" t="n"/>
+      <c r="F34" s="14" t="n"/>
+    </row>
+    <row r="35" ht="22" customHeight="1">
+      <c r="B35" s="42" t="inlineStr">
+        <is>
+          <t>写真 / 素材の有無</t>
+        </is>
+      </c>
+      <c r="C35" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C38,"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="13" t="n"/>
+      <c r="F35" s="14" t="n"/>
+    </row>
+    <row r="36" ht="22" customHeight="1">
+      <c r="B36" s="42" t="inlineStr">
+        <is>
+          <t>サイトで使用したいカラー</t>
+        </is>
+      </c>
+      <c r="C36" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C39,"")</f>
+        <v/>
+      </c>
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="13" t="n"/>
+      <c r="F36" s="14" t="n"/>
+    </row>
+    <row r="37" ht="22" customHeight="1">
+      <c r="B37" s="42" t="inlineStr">
+        <is>
+          <t>デザインのムード</t>
+        </is>
+      </c>
+      <c r="C37" s="23">
+        <f>IFERROR('Web制作ヒアリング'!B41,"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="13" t="n"/>
+      <c r="E37" s="13" t="n"/>
+      <c r="F37" s="14" t="n"/>
+    </row>
+    <row r="38" ht="22" customHeight="1">
+      <c r="B38" s="42" t="inlineStr">
+        <is>
+          <t>デザインへの想い</t>
+        </is>
+      </c>
+      <c r="C38" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C45,"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="13" t="n"/>
+      <c r="E38" s="13" t="n"/>
+      <c r="F38" s="14" t="n"/>
+    </row>
+    <row r="40" ht="24" customHeight="1">
+      <c r="B40" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  コーディング情報</t>
+        </is>
+      </c>
+      <c r="C40" s="13" t="n"/>
+      <c r="D40" s="13" t="n"/>
+      <c r="E40" s="13" t="n"/>
+      <c r="F40" s="14" t="n"/>
+    </row>
+    <row r="41" ht="22" customHeight="1">
+      <c r="B41" s="42" t="inlineStr">
+        <is>
+          <t>ドメイン</t>
+        </is>
+      </c>
+      <c r="C41" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C50,"")</f>
+        <v/>
+      </c>
+      <c r="D41" s="13" t="n"/>
+      <c r="E41" s="13" t="n"/>
+      <c r="F41" s="14" t="n"/>
+    </row>
+    <row r="42" ht="22" customHeight="1">
+      <c r="B42" s="42" t="inlineStr">
+        <is>
+          <t>サーバー</t>
+        </is>
+      </c>
+      <c r="C42" s="23">
+        <f>IFERROR('Web制作ヒアリング'!F50,"")</f>
+        <v/>
+      </c>
+      <c r="D42" s="13" t="n"/>
+      <c r="E42" s="13" t="n"/>
+      <c r="F42" s="14" t="n"/>
+    </row>
+    <row r="43" ht="22" customHeight="1">
+      <c r="B43" s="42" t="inlineStr">
+        <is>
+          <t>CMS</t>
+        </is>
+      </c>
+      <c r="C43" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C51,"")</f>
+        <v/>
+      </c>
+      <c r="D43" s="13" t="n"/>
+      <c r="E43" s="13" t="n"/>
+      <c r="F43" s="14" t="n"/>
+    </row>
+    <row r="44" ht="22" customHeight="1">
+      <c r="B44" s="42" t="inlineStr">
+        <is>
+          <t>想定ページ数</t>
+        </is>
+      </c>
+      <c r="C44" s="23">
+        <f>IFERROR('Web制作ヒアリング'!F51,"")</f>
+        <v/>
+      </c>
+      <c r="D44" s="13" t="n"/>
+      <c r="E44" s="13" t="n"/>
+      <c r="F44" s="14" t="n"/>
+    </row>
+    <row r="45" ht="22" customHeight="1">
+      <c r="B45" s="42" t="inlineStr">
+        <is>
+          <t>フォーム機能</t>
+        </is>
+      </c>
+      <c r="C45" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C52,"")</f>
+        <v/>
+      </c>
+      <c r="D45" s="13" t="n"/>
+      <c r="E45" s="13" t="n"/>
+      <c r="F45" s="14" t="n"/>
+    </row>
+    <row r="46" ht="22" customHeight="1">
+      <c r="B46" s="42" t="inlineStr">
+        <is>
+          <t>送付先メールアドレス</t>
+        </is>
+      </c>
+      <c r="C46" s="23">
+        <f>IFERROR('Web制作ヒアリング'!F52,"")</f>
+        <v/>
+      </c>
+      <c r="D46" s="13" t="n"/>
+      <c r="E46" s="13" t="n"/>
+      <c r="F46" s="14" t="n"/>
+    </row>
+    <row r="47" ht="22" customHeight="1">
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>LINE 掲載有無</t>
+        </is>
+      </c>
+      <c r="C47" s="23">
+        <f>IFERROR('Web制作ヒアリング'!C53,"")</f>
+        <v/>
+      </c>
+      <c r="D47" s="13" t="n"/>
+      <c r="E47" s="13" t="n"/>
+      <c r="F47" s="14" t="n"/>
+    </row>
+    <row r="48" ht="22" customHeight="1">
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>公開希望時期</t>
+        </is>
+      </c>
+      <c r="C48" s="55">
+        <f>IFERROR(TEXT('Web制作ヒアリング'!C54,"YYYY/MM/DD"),"")</f>
+        <v/>
+      </c>
+      <c r="D48" s="13" t="n"/>
+      <c r="E48" s="13" t="n"/>
+      <c r="F48" s="14" t="n"/>
+    </row>
+    <row r="49" ht="22" customHeight="1">
+      <c r="B49" s="42" t="inlineStr">
+        <is>
+          <t>公開希望 URL</t>
+        </is>
+      </c>
+      <c r="C49" s="23">
+        <f>IFERROR('Web制作ヒアリング'!F54,"")</f>
+        <v/>
+      </c>
+      <c r="D49" s="13" t="n"/>
+      <c r="E49" s="13" t="n"/>
+      <c r="F49" s="14" t="n"/>
+    </row>
+    <row r="51" ht="24" customHeight="1">
+      <c r="B51" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  オプション希望</t>
+        </is>
+      </c>
+      <c r="C51" s="13" t="n"/>
+      <c r="D51" s="13" t="n"/>
+      <c r="E51" s="13" t="n"/>
+      <c r="F51" s="14" t="n"/>
+    </row>
+    <row r="52" ht="22" customHeight="1">
+      <c r="B52" s="42" t="inlineStr">
+        <is>
+          <t>希望オプション数</t>
+        </is>
+      </c>
+      <c r="C52" s="23">
+        <f>IFERROR(COUNTIF('Web制作ヒアリング'!B62:B69,"希望する")+COUNTIF('Web制作ヒアリング'!E62:E69,"希望する"),"")</f>
+        <v/>
+      </c>
+      <c r="D52" s="13" t="n"/>
+      <c r="E52" s="13" t="n"/>
+      <c r="F52" s="14" t="n"/>
+    </row>
+    <row r="53" ht="18" customHeight="1">
+      <c r="B53" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　 希望オプション一覧（「希望する」を選択した項目）</t>
+        </is>
+      </c>
+      <c r="C53" s="13" t="n"/>
+      <c r="D53" s="13" t="n"/>
+      <c r="E53" s="13" t="n"/>
+      <c r="F53" s="14" t="n"/>
+    </row>
+    <row r="54" ht="18" customHeight="1">
+      <c r="B54" s="57" t="inlineStr">
+        <is>
+          <t>デザイン追加</t>
+        </is>
+      </c>
+      <c r="C54" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!B62="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D54" s="13" t="n"/>
+      <c r="E54" s="13" t="n"/>
+      <c r="F54" s="14" t="n"/>
+    </row>
+    <row r="55" ht="18" customHeight="1">
+      <c r="B55" s="57" t="inlineStr">
+        <is>
+          <t>プライバシーポリシー作成</t>
+        </is>
+      </c>
+      <c r="C55" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!E62="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D55" s="13" t="n"/>
+      <c r="E55" s="13" t="n"/>
+      <c r="F55" s="14" t="n"/>
+    </row>
+    <row r="56" ht="18" customHeight="1">
+      <c r="B56" s="57" t="inlineStr">
+        <is>
+          <t>特商法ページ作成</t>
+        </is>
+      </c>
+      <c r="C56" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!B63="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D56" s="13" t="n"/>
+      <c r="E56" s="13" t="n"/>
+      <c r="F56" s="14" t="n"/>
+    </row>
+    <row r="57" ht="18" customHeight="1">
+      <c r="B57" s="57" t="inlineStr">
+        <is>
+          <t>ライティング代行</t>
+        </is>
+      </c>
+      <c r="C57" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!E63="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="13" t="n"/>
+      <c r="E57" s="13" t="n"/>
+      <c r="F57" s="14" t="n"/>
+    </row>
+    <row r="58" ht="18" customHeight="1">
+      <c r="B58" s="57" t="inlineStr">
+        <is>
+          <t>写真撮影 / 画像編集</t>
+        </is>
+      </c>
+      <c r="C58" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!B64="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D58" s="13" t="n"/>
+      <c r="E58" s="13" t="n"/>
+      <c r="F58" s="14" t="n"/>
+    </row>
+    <row r="59" ht="18" customHeight="1">
+      <c r="B59" s="57" t="inlineStr">
+        <is>
+          <t>ロゴ制作</t>
+        </is>
+      </c>
+      <c r="C59" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!E64="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="13" t="n"/>
+      <c r="E59" s="13" t="n"/>
+      <c r="F59" s="14" t="n"/>
+    </row>
+    <row r="60" ht="18" customHeight="1">
+      <c r="B60" s="57" t="inlineStr">
+        <is>
+          <t>アクセス解析設定（GTM/GA4）</t>
+        </is>
+      </c>
+      <c r="C60" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!B65="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D60" s="13" t="n"/>
+      <c r="E60" s="13" t="n"/>
+      <c r="F60" s="14" t="n"/>
+    </row>
+    <row r="61" ht="18" customHeight="1">
+      <c r="B61" s="57" t="inlineStr">
+        <is>
+          <t>SEO初期設定</t>
+        </is>
+      </c>
+      <c r="C61" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!E65="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D61" s="13" t="n"/>
+      <c r="E61" s="13" t="n"/>
+      <c r="F61" s="14" t="n"/>
+    </row>
+    <row r="62" ht="18" customHeight="1">
+      <c r="B62" s="57" t="inlineStr">
+        <is>
+          <t>サイト速度改善</t>
+        </is>
+      </c>
+      <c r="C62" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!B66="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D62" s="13" t="n"/>
+      <c r="E62" s="13" t="n"/>
+      <c r="F62" s="14" t="n"/>
+    </row>
+    <row r="63" ht="18" customHeight="1">
+      <c r="B63" s="57" t="inlineStr">
+        <is>
+          <t>多言語対応</t>
+        </is>
+      </c>
+      <c r="C63" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!E66="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D63" s="13" t="n"/>
+      <c r="E63" s="13" t="n"/>
+      <c r="F63" s="14" t="n"/>
+    </row>
+    <row r="64" ht="18" customHeight="1">
+      <c r="B64" s="57" t="inlineStr">
+        <is>
+          <t>保守・更新</t>
+        </is>
+      </c>
+      <c r="C64" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!B67="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D64" s="13" t="n"/>
+      <c r="E64" s="13" t="n"/>
+      <c r="F64" s="14" t="n"/>
+    </row>
+    <row r="65" ht="18" customHeight="1">
+      <c r="B65" s="57" t="inlineStr">
+        <is>
+          <t>予約 / 決済など機能追加</t>
+        </is>
+      </c>
+      <c r="C65" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!E67="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D65" s="13" t="n"/>
+      <c r="E65" s="13" t="n"/>
+      <c r="F65" s="14" t="n"/>
+    </row>
+    <row r="66" ht="18" customHeight="1">
+      <c r="B66" s="57" t="inlineStr">
+        <is>
+          <t>ブログ / お知らせ機能</t>
+        </is>
+      </c>
+      <c r="C66" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!B68="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D66" s="13" t="n"/>
+      <c r="E66" s="13" t="n"/>
+      <c r="F66" s="14" t="n"/>
+    </row>
+    <row r="67" ht="18" customHeight="1">
+      <c r="B67" s="57" t="inlineStr">
+        <is>
+          <t>機能性メールフォーム</t>
+        </is>
+      </c>
+      <c r="C67" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!E68="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D67" s="13" t="n"/>
+      <c r="E67" s="13" t="n"/>
+      <c r="F67" s="14" t="n"/>
+    </row>
+    <row r="68" ht="18" customHeight="1">
+      <c r="B68" s="57" t="inlineStr">
+        <is>
+          <t>フォームのサンクスページ</t>
+        </is>
+      </c>
+      <c r="C68" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!B69="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D68" s="13" t="n"/>
+      <c r="E68" s="13" t="n"/>
+      <c r="F68" s="14" t="n"/>
+    </row>
+    <row r="69" ht="18" customHeight="1">
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t>デザインのパターン制作</t>
+        </is>
+      </c>
+      <c r="C69" s="58">
+        <f>IFERROR(IF('Web制作ヒアリング'!E69="希望する","✔ 希望する","—"),"")</f>
+        <v/>
+      </c>
+      <c r="D69" s="13" t="n"/>
+      <c r="E69" s="13" t="n"/>
+      <c r="F69" s="14" t="n"/>
+    </row>
+    <row r="71" ht="24" customHeight="1">
+      <c r="B71" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  入力ステータス</t>
+        </is>
+      </c>
+      <c r="C71" s="13" t="n"/>
+      <c r="D71" s="13" t="n"/>
+      <c r="E71" s="13" t="n"/>
+      <c r="F71" s="14" t="n"/>
+    </row>
+    <row r="72" ht="36" customHeight="1">
+      <c r="B72" s="26">
+        <f>IFERROR('Web制作ヒアリング'!E72,"")</f>
+        <v/>
+      </c>
+      <c r="C72" s="13" t="n"/>
+      <c r="D72" s="13" t="n"/>
+      <c r="E72" s="13" t="n"/>
+      <c r="F72" s="14" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="B1:F4"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C36:F36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C54:F54">
+    <cfRule type="expression" priority="1" dxfId="3">
+      <formula>'Web制作ヒアリング'!B62="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:F55">
+    <cfRule type="expression" priority="2" dxfId="3">
+      <formula>'Web制作ヒアリング'!E62="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:F56">
+    <cfRule type="expression" priority="3" dxfId="3">
+      <formula>'Web制作ヒアリング'!B63="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:F57">
+    <cfRule type="expression" priority="4" dxfId="3">
+      <formula>'Web制作ヒアリング'!E63="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:F58">
+    <cfRule type="expression" priority="5" dxfId="3">
+      <formula>'Web制作ヒアリング'!B64="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:F59">
+    <cfRule type="expression" priority="6" dxfId="3">
+      <formula>'Web制作ヒアリング'!E64="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:F60">
+    <cfRule type="expression" priority="7" dxfId="3">
+      <formula>'Web制作ヒアリング'!B65="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:F61">
+    <cfRule type="expression" priority="8" dxfId="3">
+      <formula>'Web制作ヒアリング'!E65="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:F62">
+    <cfRule type="expression" priority="9" dxfId="3">
+      <formula>'Web制作ヒアリング'!B66="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:F63">
+    <cfRule type="expression" priority="10" dxfId="3">
+      <formula>'Web制作ヒアリング'!E66="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:F64">
+    <cfRule type="expression" priority="11" dxfId="3">
+      <formula>'Web制作ヒアリング'!B67="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:F65">
+    <cfRule type="expression" priority="12" dxfId="3">
+      <formula>'Web制作ヒアリング'!E67="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:F66">
+    <cfRule type="expression" priority="13" dxfId="3">
+      <formula>'Web制作ヒアリング'!B68="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67:F67">
+    <cfRule type="expression" priority="14" dxfId="3">
+      <formula>'Web制作ヒアリング'!E68="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:F68">
+    <cfRule type="expression" priority="15" dxfId="3">
+      <formula>'Web制作ヒアリング'!B69="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:F69">
+    <cfRule type="expression" priority="16" dxfId="3">
+      <formula>'Web制作ヒアリング'!E69="希望する"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00C8A84B"/>
@@ -1978,11 +4708,13 @@
           <t>優先度（重視ポイント）</t>
         </is>
       </c>
+      <c r="C7" s="14" t="n"/>
       <c r="E7" s="28" t="inlineStr">
         <is>
           <t>アニメーション</t>
         </is>
       </c>
+      <c r="F7" s="14" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="B8" s="29" t="inlineStr">
@@ -2078,11 +4810,13 @@
           <t>制作範囲</t>
         </is>
       </c>
+      <c r="C13" s="14" t="n"/>
       <c r="E13" s="28" t="inlineStr">
         <is>
           <t>クオリティーレベル</t>
         </is>
       </c>
+      <c r="F13" s="14" t="n"/>
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="B14" s="29" t="inlineStr">
@@ -2156,11 +4890,13 @@
           <t>想定CMS</t>
         </is>
       </c>
+      <c r="C18" s="14" t="n"/>
       <c r="E18" s="28" t="inlineStr">
         <is>
           <t>公開後の運用</t>
         </is>
       </c>
+      <c r="F18" s="14" t="n"/>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="B19" s="29" t="inlineStr">
@@ -2256,6 +4992,7 @@
           <t>ドメイン・サーバー</t>
         </is>
       </c>
+      <c r="F23" s="14" t="n"/>
     </row>
     <row r="24" ht="18" customHeight="1">
       <c r="B24" s="29" t="inlineStr">
@@ -2319,6 +5056,7 @@
           <t>デザインスタイル</t>
         </is>
       </c>
+      <c r="C27" s="14" t="n"/>
     </row>
     <row r="28" ht="22" customHeight="1">
       <c r="B28" s="29" t="inlineStr">
@@ -2336,6 +5074,7 @@
           <t>SNS連携</t>
         </is>
       </c>
+      <c r="F28" s="14" t="n"/>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="B29" s="29" t="inlineStr">
@@ -2465,6 +5204,7 @@
           <t>SEO対策</t>
         </is>
       </c>
+      <c r="C35" s="14" t="n"/>
       <c r="E35" s="29" t="inlineStr">
         <is>
           <t>その他</t>
@@ -2527,15 +5267,15 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B1:F4"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
